--- a/src/assets/傳票範本.xlsx
+++ b/src/assets/傳票範本.xlsx
@@ -12,10 +12,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表2" sheetId="2" r:id="rId1"/>
+    <sheet name="工作表" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">工作表2!$10:$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">工作表!$10:$10</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -597,7 +597,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/src/assets/傳票範本.xlsx
+++ b/src/assets/傳票範本.xlsx
@@ -15,7 +15,7 @@
     <sheet name="工作表" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">工作表!$10:$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">工作表!$9:$9</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -280,7 +280,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -298,6 +298,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -594,45 +597,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.25" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11" style="5" customWidth="1"/>
     <col min="2" max="2" width="5.625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="29.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
-    <col min="5" max="8" width="11.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="11.625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -648,8 +653,8 @@
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
       <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
@@ -658,8 +663,8 @@
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
       <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
@@ -668,34 +673,39 @@
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="10" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="2" t="s">
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -705,12 +715,12 @@
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D9:F9"/>
     <mergeCell ref="B6:D7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.62992125984251968" right="0.43307086614173229" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="11" scale="55" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
+  <pageSetup paperSize="11" scale="70" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;R頁次：&amp;P/&amp;N</oddHeader>
   </headerFooter>

--- a/src/assets/傳票範本.xlsx
+++ b/src/assets/傳票範本.xlsx
@@ -600,7 +600,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -722,7 +722,7 @@
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="11" scale="70" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;R頁次：&amp;P/&amp;N</oddHeader>
+    <oddHeader>&amp;R&amp;"新細明體,標準"頁次：&amp;"Times New Roman,標準"&amp;P/&amp;N</oddHeader>
   </headerFooter>
 </worksheet>
 </file>